--- a/Портфолио/Щепетов/Календарь коммитов.xlsx
+++ b/Портфолио/Щепетов/Календарь коммитов.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Администратор\Desktop\2019_-cocktail-bar-bi-2\Портфолио\Щепетов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1886,6 +1886,467 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180498</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="35728275"/>
+          <a:ext cx="3819048" cy="2304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47238</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>295179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6229350" y="38271450"/>
+          <a:ext cx="3095238" cy="771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>99965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5619750" y="38657165"/>
+          <a:ext cx="609600" cy="4810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266394</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="34766250"/>
+          <a:ext cx="2447619" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>99965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Прямая со стрелкой 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5619750" y="37133165"/>
+          <a:ext cx="609600" cy="4810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342479</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>352337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Рисунок 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="33823275"/>
+          <a:ext cx="3371429" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228269</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>28284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Рисунок 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="30927675"/>
+          <a:ext cx="2647619" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Соединительная линия уступом 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5619750" y="32813625"/>
+          <a:ext cx="1238250" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9528</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Соединительная линия уступом 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5629276" y="34451925"/>
+          <a:ext cx="1219202" cy="1152526"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28906"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>14241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Соединительная линия уступом 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5591175" y="35142441"/>
+          <a:ext cx="895350" cy="671559"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2153,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:D195"/>
+    <sheetView tabSelected="1" topLeftCell="B101" workbookViewId="0">
+      <selection activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4899,5 +5360,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>